--- a/biology/Zoologie/Cyclocarcina_floronoides/Cyclocarcina_floronoides.xlsx
+++ b/biology/Zoologie/Cyclocarcina_floronoides/Cyclocarcina_floronoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclocarcina floronoides est une espèce d'araignées aranéomorphes de la famille des Nesticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclocarcina floronoides est une espèce d'araignées aranéomorphes de la famille des Nesticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 19/09/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 19/09/2023) :
 Cyclocarcina floronoides floronoides Kishida, 1942
 Cyclocarcina floronoides komatsui (Yaginuma, 1979)
 Cyclocarcina floronoides notoi (Yaginuma, 1979)
@@ -576,9 +592,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Kishida en 1942. Elle est placée dans le genre Nesticus par Yaginuma en 1960[2] puis dans le genre Cyclocarcina par Lehtinen et Saaristo en 1980[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Kishida en 1942. Elle est placée dans le genre Nesticus par Yaginuma en 1960 puis dans le genre Cyclocarcina par Lehtinen et Saaristo en 1980.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Komatsu, 1942 : « 最勝洞産蜘蛛 (Spiders from Saisho-do caves). » Acta Arachnologica, vol. 7, no 2, p. 54-70.
 Yaginuma, 1979 : « A study of the Japanese species of nesticid spiders. » Faculty of Letters Revue, Otemon Gakuin University, vol. 13, p. 255-287.</t>
